--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>14/02/2019</t>
+  </si>
+  <si>
+    <t>16/02/2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -549,6 +552,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>181</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>181</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>16/02/2019</t>
+  </si>
+  <si>
+    <t>19/02/2019</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -575,6 +578,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>181</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>181</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
+    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -36,36 +41,23 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
-  <si>
-    <t>13/02/2019</t>
-  </si>
-  <si>
-    <t>14/02/2019</t>
-  </si>
-  <si>
-    <t>16/02/2019</t>
-  </si>
-  <si>
-    <t>19/02/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,16 +73,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -378,20 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -418,190 +407,195 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43506</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43507</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43508</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43508</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="1">
+        <v>43509</v>
+      </c>
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="1">
+        <v>43510</v>
+      </c>
+      <c r="B7">
+        <v>173</v>
+      </c>
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>43512</v>
+      </c>
+      <c r="B8">
+        <v>181</v>
+      </c>
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>173</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>43515</v>
+      </c>
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>181</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>181</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,24 +35,28 @@
   </si>
   <si>
     <t>Page Post Impressions Viral</t>
+  </si>
+  <si>
+    <t>23/02/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,17 +72,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -371,16 +369,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -407,195 +409,213 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>23/02/2019</t>
+  </si>
+  <si>
+    <t>24/02/2019</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -615,6 +618,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>24/02/2019</t>
+  </si>
+  <si>
+    <t>25/02/2019</t>
+  </si>
+  <si>
+    <t>03/03/2019</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -641,6 +647,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
+    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -36,36 +41,39 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
-  <si>
-    <t>23/02/2019</t>
-  </si>
-  <si>
-    <t>24/02/2019</t>
-  </si>
-  <si>
-    <t>25/02/2019</t>
-  </si>
-  <si>
-    <t>03/03/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,17 +88,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -378,20 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -418,282 +427,288 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43506</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43507</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43508</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43508</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43509</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43510</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>173</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43512</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43515</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>181</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>181</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="A10" s="1">
+        <v>43519</v>
+      </c>
+      <c r="B10">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="A11" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="A12" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="A13" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,39 +36,43 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
+  <si>
+    <t>5/3/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +88,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,16 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -427,288 +429,306 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>121</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>90</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>5/3/2019</t>
+  </si>
+  <si>
+    <t>6/3/2019</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -727,6 +730,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>5/3/2019</t>
+  </si>
+  <si>
+    <t>10/3/2019</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -727,6 +730,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>135</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
+    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -36,46 +46,39 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
-  <si>
-    <t>5/3/2019</t>
-  </si>
-  <si>
-    <t>10/3/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,20 +94,26 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,23 +401,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,330 +436,353 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>43506</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>43507</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>43508</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>43508</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43509</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>43510</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>173</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>43512</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>43515</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>181</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>181</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>43519</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>121</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>121</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>43520</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>90</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>43521</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>43527</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B15">
         <v>135</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>135</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>135</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
+    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -36,46 +41,39 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
-  <si>
-    <t>5/3/2019</t>
-  </si>
-  <si>
-    <t>6/3/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,20 +89,21 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -392,20 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -432,329 +427,380 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43506</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43507</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43508</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43508</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43509</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43510</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>173</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43512</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>43515</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>181</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>181</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>43519</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>121</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>121</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>43520</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>90</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>43521</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>43527</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="A14" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="A15" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B17">
+        <v>135</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2600" windowWidth="16100" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,39 +36,43 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
+  <si>
+    <t>12/3/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +88,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,16 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -427,380 +429,398 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>121</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>90</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43529</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43530</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43535</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>135</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>135</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43535</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>135</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>11</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>135</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>135</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>135</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>12/3/2019</t>
+  </si>
+  <si>
+    <t>13/3/2019</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -819,6 +822,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="n">
+        <v>135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>135</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="2640" yWindow="2600"/>
+    <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -36,46 +41,39 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
-  <si>
-    <t>12/3/2019</t>
-  </si>
-  <si>
-    <t>13/3/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,21 +88,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -392,20 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -432,421 +455,863 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>43506</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>43507</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>43508</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>43508</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>43509</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>43510</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>173</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>173</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>43512</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>181</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
+        <v>43513</v>
+      </c>
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>181</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>43514</v>
+      </c>
+      <c r="B10">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>43515</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>43516</v>
+      </c>
+      <c r="B12">
         <v>181</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>181</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B13">
+        <v>181</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>181</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>43518</v>
+      </c>
+      <c r="B14">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>121</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>43519</v>
       </c>
-      <c r="B10" t="n">
-        <v>121</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>43520</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>43522</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>43523</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>43522</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>43523</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>43526</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>122</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B31">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>135</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>43533</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>121</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n">
-        <v>43520</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>120</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B33">
         <v>100</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B34">
+        <v>140</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>140</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B36">
+        <v>135</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>90</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n">
-        <v>43521</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n">
-        <v>43527</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="n">
-        <v>43529</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="n">
-        <v>43530</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="n">
-        <v>43535</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>135</v>
       </c>
-      <c r="C16" t="n">
-        <v>11</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B37">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>135</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="n">
-        <v>43535</v>
-      </c>
-      <c r="B17" t="n">
-        <v>135</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B38">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>135</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="n">
-        <v>135</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>135</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="n">
-        <v>135</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>135</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>73</v>
+      </c>
+      <c r="G38">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -88,46 +88,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1302,6 +1274,29 @@
         <v>73</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1297,6 +1297,29 @@
         <v>0</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1320,6 +1320,29 @@
         <v>0</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B41">
+        <v>103</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>103</v>
+      </c>
+      <c r="G41">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1343,6 +1343,29 @@
         <v>103</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B42">
+        <v>109</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>109</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1366,6 +1366,29 @@
         <v>109</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B43">
+        <v>109</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>109</v>
+      </c>
+      <c r="G43">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1389,6 +1389,29 @@
         <v>109</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B44">
+        <v>109</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>109</v>
+      </c>
+      <c r="G44">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1413,6 +1413,29 @@
       </c>
       <c r="G44">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B45">
+        <v>1479</v>
+      </c>
+      <c r="C45">
+        <v>156</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>1250</v>
+      </c>
+      <c r="F45">
+        <v>229</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15120" windowWidth="27520" xWindow="9480" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,39 +36,43 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
+  <si>
+    <t>30/3/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +88,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,16 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -427,1001 +429,1019 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43513</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43514</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>121</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43516</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>181</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>181</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43517</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>181</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>181</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43518</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>121</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>100</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>90</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43524</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43525</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>50</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43526</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>29</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43529</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>42</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43530</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>32</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43531</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>122</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>122</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43532</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>135</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>135</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43533</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>120</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>120</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43534</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>100</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>100</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43537</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>140</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>140</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43538</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>100</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>135</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>135</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43540</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>98</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>98</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43541</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>73</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>73</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43542</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43543</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43544</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>103</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>103</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43548</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>109</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>109</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43549</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>109</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>109</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43550</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>109</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>109</v>
       </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1477</v>
+      </c>
+      <c r="C45" t="n">
+        <v>156</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F45" t="n">
+        <v>227</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15120" windowWidth="27520" xWindow="9480" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,39 +36,43 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
+  <si>
+    <t>30/3/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +88,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,16 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -427,1024 +429,1019 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43513</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43514</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>121</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43516</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>181</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>181</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43517</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>181</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>181</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43518</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>121</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>100</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>90</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43524</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43525</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>50</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43526</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>29</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43529</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>42</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43530</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>32</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43531</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>122</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>122</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43532</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>135</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>135</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43533</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>120</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>120</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43534</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>100</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>100</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43537</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>140</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>140</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43538</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>100</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>135</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>135</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43540</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>98</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>98</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43541</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>73</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>73</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43542</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43543</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43544</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>103</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>103</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43548</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>109</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>109</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43549</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>109</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>109</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43550</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>109</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>109</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B45">
-        <v>1479</v>
-      </c>
-      <c r="C45">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1477</v>
+      </c>
+      <c r="C45" t="n">
         <v>156</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>1250</v>
       </c>
-      <c r="F45">
-        <v>229</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>227</v>
+      </c>
+      <c r="G45" t="n">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="B45">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C45">
         <v>156</v>
@@ -1432,10 +1432,79 @@
         <v>1250</v>
       </c>
       <c r="F45">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G45">
         <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B46">
+        <v>1479</v>
+      </c>
+      <c r="C46">
+        <v>156</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>1250</v>
+      </c>
+      <c r="F46">
+        <v>229</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B47">
+        <v>2231</v>
+      </c>
+      <c r="C47">
+        <v>279</v>
+      </c>
+      <c r="D47">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>1762</v>
+      </c>
+      <c r="F47">
+        <v>469</v>
+      </c>
+      <c r="G47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B48">
+        <v>4661</v>
+      </c>
+      <c r="C48">
+        <v>654</v>
+      </c>
+      <c r="D48">
+        <v>303</v>
+      </c>
+      <c r="E48">
+        <v>2087</v>
+      </c>
+      <c r="F48">
+        <v>2574</v>
+      </c>
+      <c r="G48">
+        <v>2187</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15120" windowWidth="27520" xWindow="9480" yWindow="2600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,39 +36,43 @@
   <si>
     <t>Page Post Impressions Viral</t>
   </si>
+  <si>
+    <t>4/4/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +88,20 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -391,16 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -427,1093 +429,1111 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>43506</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>43508</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>43509</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>98</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>173</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>173</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>43512</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>181</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>181</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>43513</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>181</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>181</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>43514</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>121</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>43515</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>43516</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>181</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>181</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>43517</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>181</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>181</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>43518</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>121</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>121</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>43519</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>43520</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>100</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>90</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>43524</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>43521</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>43522</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>43523</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>43525</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>50</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>43526</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>43527</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>43528</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>29</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>43529</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>42</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>43530</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>32</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>43531</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>122</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>122</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>43532</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>135</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>135</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>43533</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>120</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>120</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>43534</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>100</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>100</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>43537</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>140</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>12</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>140</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>43538</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>100</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>43539</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>135</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>135</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>43540</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>98</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>98</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>43541</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>73</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>73</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>43542</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>43543</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>43544</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>103</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>103</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>43548</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>109</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>109</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>43549</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>109</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>11</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>109</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>43550</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>109</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>109</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43554</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1477</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>156</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>1250</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>227</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>43556</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1479</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>156</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>25</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>1250</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>229</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>43557</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>2231</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>279</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>87</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1762</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>469</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>43558</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>4661</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>654</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>303</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>2087</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>2574</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>2187</v>
       </c>
     </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4887</v>
+      </c>
+      <c r="C49" t="n">
+        <v>666</v>
+      </c>
+      <c r="D49" t="n">
+        <v>340</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3518</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3089</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
   </bookViews>
@@ -109,11 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -402,18 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43506</v>
       </c>
@@ -459,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>43507</v>
       </c>
@@ -482,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>43508</v>
       </c>
@@ -505,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>43508</v>
       </c>
@@ -528,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>43509</v>
       </c>
@@ -551,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>43510</v>
       </c>
@@ -574,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>43512</v>
       </c>
@@ -597,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>43513</v>
       </c>
@@ -620,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>43514</v>
       </c>
@@ -643,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -666,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>43516</v>
       </c>
@@ -689,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>43517</v>
       </c>
@@ -712,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>43518</v>
       </c>
@@ -735,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>43519</v>
       </c>
@@ -758,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>43520</v>
       </c>
@@ -781,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>43521</v>
       </c>
@@ -804,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>43522</v>
       </c>
@@ -827,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>43523</v>
       </c>
@@ -850,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>43524</v>
       </c>
@@ -873,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>43521</v>
       </c>
@@ -896,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>43522</v>
       </c>
@@ -919,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>43523</v>
       </c>
@@ -942,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>43525</v>
       </c>
@@ -965,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>43526</v>
       </c>
@@ -988,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>43527</v>
       </c>
@@ -1011,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>43528</v>
       </c>
@@ -1034,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>43529</v>
       </c>
@@ -1057,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>43530</v>
       </c>
@@ -1080,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>43531</v>
       </c>
@@ -1103,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>43532</v>
       </c>
@@ -1126,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>43533</v>
       </c>
@@ -1149,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>43534</v>
       </c>
@@ -1172,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -1195,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -1241,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -1287,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -1310,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -1333,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -1356,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -1379,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -1425,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -1448,7 +1438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -1471,7 +1461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -1494,7 +1484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -1540,7 +1530,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -1561,10 +1551,38 @@
       </c>
       <c r="G50">
         <v>3718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B51">
+        <v>5739</v>
+      </c>
+      <c r="C51">
+        <v>729</v>
+      </c>
+      <c r="D51">
+        <v>365</v>
+      </c>
+      <c r="E51">
+        <v>1368</v>
+      </c>
+      <c r="F51">
+        <v>4371</v>
+      </c>
+      <c r="G51">
+        <v>3909</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
   </bookViews>
@@ -104,6 +109,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,18 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43506</v>
       </c>
@@ -449,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43507</v>
       </c>
@@ -472,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43508</v>
       </c>
@@ -495,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43508</v>
       </c>
@@ -518,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43509</v>
       </c>
@@ -541,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43510</v>
       </c>
@@ -564,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43512</v>
       </c>
@@ -587,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43513</v>
       </c>
@@ -610,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43514</v>
       </c>
@@ -633,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43515</v>
       </c>
@@ -656,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43516</v>
       </c>
@@ -679,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43517</v>
       </c>
@@ -702,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43518</v>
       </c>
@@ -725,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43519</v>
       </c>
@@ -748,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43520</v>
       </c>
@@ -771,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43521</v>
       </c>
@@ -794,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43522</v>
       </c>
@@ -817,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43523</v>
       </c>
@@ -840,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43524</v>
       </c>
@@ -863,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43521</v>
       </c>
@@ -886,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43522</v>
       </c>
@@ -909,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43523</v>
       </c>
@@ -932,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43525</v>
       </c>
@@ -955,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43526</v>
       </c>
@@ -978,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43527</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43528</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43529</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43530</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43531</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43532</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43533</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43534</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43537</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43538</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43539</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43540</v>
       </c>
@@ -1254,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43541</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43542</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43543</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43544</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43548</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43549</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43550</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43554</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43557</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43558</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43559</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43560</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43561</v>
       </c>
@@ -1574,15 +1584,56 @@
       </c>
       <c r="G51">
         <v>3909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B52">
+        <v>5851</v>
+      </c>
+      <c r="C52">
+        <v>741</v>
+      </c>
+      <c r="D52">
+        <v>381</v>
+      </c>
+      <c r="E52">
+        <v>1368</v>
+      </c>
+      <c r="F52">
+        <v>4483</v>
+      </c>
+      <c r="G52">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B53">
+        <v>5951</v>
+      </c>
+      <c r="C53">
+        <v>751</v>
+      </c>
+      <c r="D53">
+        <v>381</v>
+      </c>
+      <c r="E53">
+        <v>1368</v>
+      </c>
+      <c r="F53">
+        <v>4583</v>
+      </c>
+      <c r="G53">
+        <v>4114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1632,6 +1632,29 @@
         <v>4114</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B54">
+        <v>5229</v>
+      </c>
+      <c r="C54">
+        <v>628</v>
+      </c>
+      <c r="D54">
+        <v>319</v>
+      </c>
+      <c r="E54">
+        <v>856</v>
+      </c>
+      <c r="F54">
+        <v>4373</v>
+      </c>
+      <c r="G54">
+        <v>4104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,6 +1655,29 @@
         <v>4104</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B55">
+        <v>2094</v>
+      </c>
+      <c r="C55">
+        <v>175</v>
+      </c>
+      <c r="D55">
+        <v>87</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2094</v>
+      </c>
+      <c r="G55">
+        <v>1965</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1678,6 +1678,75 @@
         <v>1965</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B56">
+        <v>1122</v>
+      </c>
+      <c r="C56">
+        <v>86</v>
+      </c>
+      <c r="D56">
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1122</v>
+      </c>
+      <c r="G56">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B57">
+        <v>1122</v>
+      </c>
+      <c r="C57">
+        <v>86</v>
+      </c>
+      <c r="D57">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1122</v>
+      </c>
+      <c r="G57">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B58">
+        <v>616</v>
+      </c>
+      <c r="C58">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>151</v>
+      </c>
+      <c r="F58">
+        <v>465</v>
+      </c>
+      <c r="G58">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+      <selection activeCell="B59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1747,6 +1747,29 @@
         <v>310</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B59">
+        <v>654</v>
+      </c>
+      <c r="C59">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>21</v>
+      </c>
+      <c r="E59">
+        <v>272</v>
+      </c>
+      <c r="F59">
+        <v>382</v>
+      </c>
+      <c r="G59">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B59" sqref="A59:XFD59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1770,6 +1770,29 @@
         <v>216</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B60">
+        <v>679</v>
+      </c>
+      <c r="C60">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>272</v>
+      </c>
+      <c r="F60">
+        <v>407</v>
+      </c>
+      <c r="G60">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1793,6 +1793,29 @@
         <v>219</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B61">
+        <v>732</v>
+      </c>
+      <c r="C61">
+        <v>80</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>272</v>
+      </c>
+      <c r="F61">
+        <v>460</v>
+      </c>
+      <c r="G61">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1816,6 +1816,29 @@
         <v>262</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B62">
+        <v>750</v>
+      </c>
+      <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>272</v>
+      </c>
+      <c r="F62">
+        <v>478</v>
+      </c>
+      <c r="G62">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="2600" windowWidth="27520" windowHeight="15120"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="25600" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1839,6 +1839,98 @@
         <v>272</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B63">
+        <v>756</v>
+      </c>
+      <c r="C63">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>272</v>
+      </c>
+      <c r="F63">
+        <v>484</v>
+      </c>
+      <c r="G63">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B64">
+        <v>756</v>
+      </c>
+      <c r="C64">
+        <v>82</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>272</v>
+      </c>
+      <c r="F64">
+        <v>484</v>
+      </c>
+      <c r="G64">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B65">
+        <v>1525</v>
+      </c>
+      <c r="C65">
+        <v>355</v>
+      </c>
+      <c r="D65">
+        <v>155</v>
+      </c>
+      <c r="E65">
+        <v>342</v>
+      </c>
+      <c r="F65">
+        <v>1183</v>
+      </c>
+      <c r="G65">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B66">
+        <v>2610</v>
+      </c>
+      <c r="C66">
+        <v>418</v>
+      </c>
+      <c r="D66">
+        <v>161</v>
+      </c>
+      <c r="E66">
+        <v>496</v>
+      </c>
+      <c r="F66">
+        <v>2114</v>
+      </c>
+      <c r="G66">
+        <v>1736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1931,6 +1931,29 @@
         <v>1736</v>
       </c>
     </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B67">
+        <v>3603</v>
+      </c>
+      <c r="C67">
+        <v>516</v>
+      </c>
+      <c r="D67">
+        <v>197</v>
+      </c>
+      <c r="E67">
+        <v>818</v>
+      </c>
+      <c r="F67">
+        <v>2785</v>
+      </c>
+      <c r="G67">
+        <v>2390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1954,6 +1954,29 @@
         <v>2390</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B68">
+        <v>4021</v>
+      </c>
+      <c r="C68">
+        <v>643</v>
+      </c>
+      <c r="D68">
+        <v>214</v>
+      </c>
+      <c r="E68">
+        <v>1012</v>
+      </c>
+      <c r="F68">
+        <v>3024</v>
+      </c>
+      <c r="G68">
+        <v>2641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1977,6 +1977,29 @@
         <v>2641</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B69">
+        <v>4091</v>
+      </c>
+      <c r="C69">
+        <v>557</v>
+      </c>
+      <c r="D69">
+        <v>217</v>
+      </c>
+      <c r="E69">
+        <v>876</v>
+      </c>
+      <c r="F69">
+        <v>3215</v>
+      </c>
+      <c r="G69">
+        <v>2823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1998,6 +1998,75 @@
       </c>
       <c r="G69">
         <v>2823</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B70">
+        <v>5697</v>
+      </c>
+      <c r="C70">
+        <v>687</v>
+      </c>
+      <c r="D70">
+        <v>272</v>
+      </c>
+      <c r="E70">
+        <v>1686</v>
+      </c>
+      <c r="F70">
+        <v>4011</v>
+      </c>
+      <c r="G70">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B71">
+        <v>6554</v>
+      </c>
+      <c r="C71">
+        <v>783</v>
+      </c>
+      <c r="D71">
+        <v>304</v>
+      </c>
+      <c r="E71">
+        <v>1686</v>
+      </c>
+      <c r="F71">
+        <v>4868</v>
+      </c>
+      <c r="G71">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B72">
+        <v>6063</v>
+      </c>
+      <c r="C72">
+        <v>515</v>
+      </c>
+      <c r="D72">
+        <v>179</v>
+      </c>
+      <c r="E72">
+        <v>1465</v>
+      </c>
+      <c r="F72">
+        <v>4598</v>
+      </c>
+      <c r="G72">
+        <v>4482</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2069,6 +2069,52 @@
         <v>4482</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B73">
+        <v>5089</v>
+      </c>
+      <c r="C73">
+        <v>453</v>
+      </c>
+      <c r="D73">
+        <v>175</v>
+      </c>
+      <c r="E73">
+        <v>1190</v>
+      </c>
+      <c r="F73">
+        <v>3899</v>
+      </c>
+      <c r="G73">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B74">
+        <v>4158</v>
+      </c>
+      <c r="C74">
+        <v>355</v>
+      </c>
+      <c r="D74">
+        <v>136</v>
+      </c>
+      <c r="E74">
+        <v>868</v>
+      </c>
+      <c r="F74">
+        <v>3290</v>
+      </c>
+      <c r="G74">
+        <v>3232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Page-Post.xlsx
+++ b/excels/lite/lite-Page-Post.xlsx
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2115,6 +2115,29 @@
         <v>3232</v>
       </c>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B75">
+        <v>3728</v>
+      </c>
+      <c r="C75">
+        <v>354</v>
+      </c>
+      <c r="D75">
+        <v>142</v>
+      </c>
+      <c r="E75">
+        <v>459</v>
+      </c>
+      <c r="F75">
+        <v>3269</v>
+      </c>
+      <c r="G75">
+        <v>3138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
